--- a/Config/JA/ロボット.xlsx
+++ b/Config/JA/ロボット.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB1718-7720-4D85-A26E-18A2A4EA3A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE814598-62C7-4D45-BCEE-A47A18217B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C2"/>
+      <c r="C2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/Config/JA/ロボット.xlsx
+++ b/Config/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE814598-62C7-4D45-BCEE-A47A18217B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF26BBA-F953-40E7-92CE-F052D5E99B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/ロボット.xlsx
+++ b/Config/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF26BBA-F953-40E7-92CE-F052D5E99B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C966F3DF-D820-4873-B057-CBBD4A3EE7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>ホスティングの種類</t>
   </si>
@@ -130,7 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -282,17 +282,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -422,32 +411,31 @@
   <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="組織単位ID"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="組織単位名" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="組織単位名" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="20"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボット種類" totalsRowFunction="count" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボット種類" totalsRowFunction="count" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J93" totalsRowShown="0">
-  <autoFilter ref="A1:J93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I93" totalsRowShown="0">
+  <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="17"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{642DAEB8-3A59-4D59-9A88-C6601D245B6F}" name="ロボットグループ" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="11"/>
   </tableColumns>
@@ -1434,7 +1422,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1448,12 +1436,11 @@
     <col min="5" max="5" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,839 +1463,716 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2316,7 +2180,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A1048576 A2" xr:uid="{3B11C794-A5DC-485E-88B4-884B1F78DCF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19:A1048576 A8:A9 A2:A3" xr:uid="{3B11C794-A5DC-485E-88B4-884B1F78DCF8}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Config/JA/ロボット.xlsx
+++ b/Config/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C966F3DF-D820-4873-B057-CBBD4A3EE7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4714938-3BE1-4F25-A32D-E51AE877F22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/ロボット.xlsx
+++ b/Config/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4714938-3BE1-4F25-A32D-E51AE877F22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B8DC2C-76E9-40B2-A4B8-E961DAC8E7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,10 +121,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -126,8 +135,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
@@ -1471,6 +1484,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>

--- a/Config/JA/ロボット.xlsx
+++ b/Config/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B8DC2C-76E9-40B2-A4B8-E961DAC8E7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B972FF4-05F0-4C39-99CF-65EA1CA58837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
